--- a/predict/2024/schedule/sched.xlsx
+++ b/predict/2024/schedule/sched.xlsx
@@ -4785,10 +4785,10 @@
         <v>464</v>
       </c>
       <c r="G104" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H104" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="I104" t="s">
         <v>463</v>
@@ -8323,10 +8323,10 @@
         <v>464</v>
       </c>
       <c r="G226" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H226" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I226" t="s">
         <v>463</v>
@@ -9628,10 +9628,10 @@
         <v>464</v>
       </c>
       <c r="G271" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H271" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="I271" t="s">
         <v>463</v>
@@ -11455,10 +11455,10 @@
         <v>464</v>
       </c>
       <c r="G334" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H334" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I334" t="s">
         <v>463</v>
@@ -12818,10 +12818,10 @@
         <v>464</v>
       </c>
       <c r="G381" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H381" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="I381" t="s">
         <v>463</v>
@@ -12847,10 +12847,10 @@
         <v>464</v>
       </c>
       <c r="G382" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H382" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I382" t="s">
         <v>463</v>
@@ -16356,10 +16356,10 @@
         <v>464</v>
       </c>
       <c r="G503" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H503" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I503" t="s">
         <v>463</v>
@@ -16878,10 +16878,10 @@
         <v>464</v>
       </c>
       <c r="G521" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H521" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="I521" t="s">
         <v>463</v>
@@ -17980,10 +17980,10 @@
         <v>464</v>
       </c>
       <c r="G559" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H559" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I559" t="s">
         <v>463</v>
@@ -19256,10 +19256,10 @@
         <v>464</v>
       </c>
       <c r="G603" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H603" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="I603" t="s">
         <v>463</v>
@@ -24766,10 +24766,10 @@
         <v>464</v>
       </c>
       <c r="G793" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H793" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="I793" t="s">
         <v>463</v>
@@ -26622,10 +26622,10 @@
         <v>464</v>
       </c>
       <c r="G857" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H857" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="I857" t="s">
         <v>463</v>
@@ -27869,10 +27869,10 @@
         <v>464</v>
       </c>
       <c r="G900" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H900" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I900" t="s">
         <v>463</v>

--- a/predict/2024/schedule/sched.xlsx
+++ b/predict/2024/schedule/sched.xlsx
@@ -3915,10 +3915,10 @@
         <v>464</v>
       </c>
       <c r="G74" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H74" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I74" t="s">
         <v>463</v>
@@ -4785,10 +4785,10 @@
         <v>464</v>
       </c>
       <c r="G104" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H104" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I104" t="s">
         <v>463</v>
@@ -8584,10 +8584,10 @@
         <v>464</v>
       </c>
       <c r="G235" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H235" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I235" t="s">
         <v>463</v>
@@ -9628,10 +9628,10 @@
         <v>464</v>
       </c>
       <c r="G271" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H271" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I271" t="s">
         <v>463</v>
@@ -10498,10 +10498,10 @@
         <v>464</v>
       </c>
       <c r="G301" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H301" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I301" t="s">
         <v>463</v>
@@ -12818,10 +12818,10 @@
         <v>464</v>
       </c>
       <c r="G381" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H381" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I381" t="s">
         <v>463</v>
@@ -13688,10 +13688,10 @@
         <v>464</v>
       </c>
       <c r="G411" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H411" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I411" t="s">
         <v>463</v>
@@ -16240,10 +16240,10 @@
         <v>464</v>
       </c>
       <c r="G499" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H499" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I499" t="s">
         <v>463</v>
@@ -16878,10 +16878,10 @@
         <v>464</v>
       </c>
       <c r="G521" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H521" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I521" t="s">
         <v>463</v>
@@ -18183,10 +18183,10 @@
         <v>464</v>
       </c>
       <c r="G566" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H566" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I566" t="s">
         <v>463</v>
@@ -19256,10 +19256,10 @@
         <v>464</v>
       </c>
       <c r="G603" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H603" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I603" t="s">
         <v>463</v>
@@ -24766,10 +24766,10 @@
         <v>464</v>
       </c>
       <c r="G793" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H793" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I793" t="s">
         <v>463</v>
@@ -26622,10 +26622,10 @@
         <v>464</v>
       </c>
       <c r="G857" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H857" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I857" t="s">
         <v>463</v>
@@ -28072,10 +28072,10 @@
         <v>464</v>
       </c>
       <c r="G907" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H907" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I907" t="s">
         <v>463</v>

--- a/predict/2024/schedule/sched.xlsx
+++ b/predict/2024/schedule/sched.xlsx
@@ -340,18 +340,18 @@
     <t>TBD</t>
   </si>
   <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Morgan St</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
     <t>Delaware</t>
   </si>
   <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Morgan St</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
     <t>Howard</t>
   </si>
   <si>
@@ -631,57 +631,57 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>McNeese</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>St Francis PA</t>
+  </si>
+  <si>
     <t>Utah Tech</t>
   </si>
   <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
     <t>Northern Iowa</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>McNeese</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>St Francis PA</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
@@ -919,15 +919,15 @@
     <t>Wofford</t>
   </si>
   <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
     <t>DEL</t>
   </si>
   <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>MORG</t>
-  </si>
-  <si>
     <t>HOW</t>
   </si>
   <si>
@@ -1186,55 +1186,55 @@
     <t>DUKE</t>
   </si>
   <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>SFPA</t>
+  </si>
+  <si>
     <t>UTU</t>
   </si>
   <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
     <t>UNI</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>SFPA</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>MICH</t>
   </si>
   <si>
     <t>MASS</t>
@@ -3356,10 +3356,10 @@
         <v>481</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="I48" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="J48" t="s">
         <v>480</v>
@@ -3388,10 +3388,10 @@
         <v>481</v>
       </c>
       <c r="H49" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="I49" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="J49" t="s">
         <v>480</v>
@@ -3411,7 +3411,7 @@
         <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>303</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
         <v>480</v>
@@ -3420,10 +3420,10 @@
         <v>481</v>
       </c>
       <c r="H50" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="I50" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="J50" t="s">
         <v>480</v>
@@ -3443,7 +3443,7 @@
         <v>111</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="F51" t="s">
         <v>480</v>
@@ -3452,10 +3452,10 @@
         <v>481</v>
       </c>
       <c r="H51" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="I51" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="J51" t="s">
         <v>480</v>
@@ -3676,10 +3676,10 @@
         <v>481</v>
       </c>
       <c r="H58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J58" t="s">
         <v>480</v>
@@ -3804,10 +3804,10 @@
         <v>481</v>
       </c>
       <c r="H62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I62" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J62" t="s">
         <v>480</v>
@@ -4156,10 +4156,10 @@
         <v>481</v>
       </c>
       <c r="H73" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I73" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J73" t="s">
         <v>480</v>
@@ -4220,10 +4220,10 @@
         <v>481</v>
       </c>
       <c r="H75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J75" t="s">
         <v>480</v>
@@ -4604,10 +4604,10 @@
         <v>481</v>
       </c>
       <c r="H87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I87" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J87" t="s">
         <v>480</v>
@@ -4828,10 +4828,10 @@
         <v>481</v>
       </c>
       <c r="H94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I94" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J94" t="s">
         <v>480</v>
@@ -5020,10 +5020,10 @@
         <v>481</v>
       </c>
       <c r="H100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J100" t="s">
         <v>480</v>
@@ -5244,10 +5244,10 @@
         <v>481</v>
       </c>
       <c r="H107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I107" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J107" t="s">
         <v>480</v>
@@ -5308,10 +5308,10 @@
         <v>481</v>
       </c>
       <c r="H109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I109" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J109" t="s">
         <v>480</v>
@@ -5372,10 +5372,10 @@
         <v>481</v>
       </c>
       <c r="H111" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="I111" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="J111" t="s">
         <v>480</v>
@@ -5820,10 +5820,10 @@
         <v>481</v>
       </c>
       <c r="H125" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I125" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J125" t="s">
         <v>480</v>
@@ -5948,10 +5948,10 @@
         <v>481</v>
       </c>
       <c r="H129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I129" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J129" t="s">
         <v>480</v>
@@ -6172,10 +6172,10 @@
         <v>481</v>
       </c>
       <c r="H136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J136" t="s">
         <v>480</v>
@@ -6332,10 +6332,10 @@
         <v>481</v>
       </c>
       <c r="H141" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="I141" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="J141" t="s">
         <v>480</v>
@@ -6588,10 +6588,10 @@
         <v>481</v>
       </c>
       <c r="H149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J149" t="s">
         <v>480</v>
@@ -6640,10 +6640,10 @@
         <v>53</v>
       </c>
       <c r="D151" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="E151" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="F151" t="s">
         <v>480</v>
@@ -6652,10 +6652,10 @@
         <v>481</v>
       </c>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I151" t="s">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="J151" t="s">
         <v>480</v>
@@ -6672,10 +6672,10 @@
         <v>53</v>
       </c>
       <c r="D152" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E152" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="F152" t="s">
         <v>480</v>
@@ -6684,10 +6684,10 @@
         <v>481</v>
       </c>
       <c r="H152" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="I152" t="s">
-        <v>344</v>
+        <v>437</v>
       </c>
       <c r="J152" t="s">
         <v>480</v>
@@ -6704,10 +6704,10 @@
         <v>53</v>
       </c>
       <c r="D153" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="E153" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="F153" t="s">
         <v>480</v>
@@ -6716,10 +6716,10 @@
         <v>481</v>
       </c>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="I153" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="J153" t="s">
         <v>480</v>
@@ -6736,10 +6736,10 @@
         <v>53</v>
       </c>
       <c r="D154" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="E154" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="F154" t="s">
         <v>480</v>
@@ -6748,10 +6748,10 @@
         <v>481</v>
       </c>
       <c r="H154" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="I154" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
       <c r="J154" t="s">
         <v>480</v>
@@ -6780,10 +6780,10 @@
         <v>481</v>
       </c>
       <c r="H155" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="I155" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="J155" t="s">
         <v>480</v>
@@ -6800,10 +6800,10 @@
         <v>53</v>
       </c>
       <c r="D156" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="F156" t="s">
         <v>480</v>
@@ -6812,10 +6812,10 @@
         <v>481</v>
       </c>
       <c r="H156" t="s">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="I156" t="s">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="J156" t="s">
         <v>480</v>
@@ -6832,10 +6832,10 @@
         <v>53</v>
       </c>
       <c r="D157" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E157" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F157" t="s">
         <v>480</v>
@@ -6844,10 +6844,10 @@
         <v>481</v>
       </c>
       <c r="H157" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="I157" t="s">
-        <v>334</v>
+        <v>474</v>
       </c>
       <c r="J157" t="s">
         <v>480</v>
@@ -6864,10 +6864,10 @@
         <v>53</v>
       </c>
       <c r="D158" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="E158" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="F158" t="s">
         <v>480</v>
@@ -6876,10 +6876,10 @@
         <v>481</v>
       </c>
       <c r="H158" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="I158" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="J158" t="s">
         <v>480</v>
@@ -6908,10 +6908,10 @@
         <v>481</v>
       </c>
       <c r="H159" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="I159" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="J159" t="s">
         <v>480</v>
@@ -6928,10 +6928,10 @@
         <v>53</v>
       </c>
       <c r="D160" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E160" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F160" t="s">
         <v>480</v>
@@ -6940,10 +6940,10 @@
         <v>481</v>
       </c>
       <c r="H160" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="I160" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="J160" t="s">
         <v>480</v>
@@ -6960,10 +6960,10 @@
         <v>53</v>
       </c>
       <c r="D161" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E161" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F161" t="s">
         <v>480</v>
@@ -6972,10 +6972,10 @@
         <v>481</v>
       </c>
       <c r="H161" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="I161" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="J161" t="s">
         <v>480</v>
@@ -6992,10 +6992,10 @@
         <v>53</v>
       </c>
       <c r="D162" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="E162" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="F162" t="s">
         <v>480</v>
@@ -7004,10 +7004,10 @@
         <v>481</v>
       </c>
       <c r="H162" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="I162" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="J162" t="s">
         <v>480</v>
@@ -7036,10 +7036,10 @@
         <v>481</v>
       </c>
       <c r="H163" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="I163" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="J163" t="s">
         <v>480</v>
@@ -7056,10 +7056,10 @@
         <v>53</v>
       </c>
       <c r="D164" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E164" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F164" t="s">
         <v>480</v>
@@ -7068,10 +7068,10 @@
         <v>481</v>
       </c>
       <c r="H164" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="I164" t="s">
-        <v>310</v>
+        <v>424</v>
       </c>
       <c r="J164" t="s">
         <v>480</v>
@@ -7088,10 +7088,10 @@
         <v>53</v>
       </c>
       <c r="D165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E165" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F165" t="s">
         <v>480</v>
@@ -7100,10 +7100,10 @@
         <v>481</v>
       </c>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="I165" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="J165" t="s">
         <v>480</v>
@@ -7120,10 +7120,10 @@
         <v>53</v>
       </c>
       <c r="D166" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E166" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="F166" t="s">
         <v>480</v>
@@ -7132,10 +7132,10 @@
         <v>481</v>
       </c>
       <c r="H166" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="I166" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="J166" t="s">
         <v>480</v>
@@ -7164,10 +7164,10 @@
         <v>481</v>
       </c>
       <c r="H167" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="I167" t="s">
-        <v>442</v>
+        <v>178</v>
       </c>
       <c r="J167" t="s">
         <v>480</v>
@@ -7196,10 +7196,10 @@
         <v>481</v>
       </c>
       <c r="H168" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="I168" t="s">
-        <v>337</v>
+        <v>475</v>
       </c>
       <c r="J168" t="s">
         <v>480</v>
@@ -7228,10 +7228,10 @@
         <v>481</v>
       </c>
       <c r="H169" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I169" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J169" t="s">
         <v>480</v>
@@ -7260,10 +7260,10 @@
         <v>481</v>
       </c>
       <c r="H170" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I170" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="J170" t="s">
         <v>480</v>
@@ -7292,10 +7292,10 @@
         <v>481</v>
       </c>
       <c r="H171" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I171" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J171" t="s">
         <v>480</v>
@@ -7312,10 +7312,10 @@
         <v>53</v>
       </c>
       <c r="D172" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="E172" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="F172" t="s">
         <v>480</v>
@@ -7324,10 +7324,10 @@
         <v>481</v>
       </c>
       <c r="H172" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="I172" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J172" t="s">
         <v>480</v>
@@ -7344,10 +7344,10 @@
         <v>53</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E173" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
         <v>480</v>
@@ -7356,10 +7356,10 @@
         <v>481</v>
       </c>
       <c r="H173" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="I173" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="J173" t="s">
         <v>480</v>
@@ -7376,10 +7376,10 @@
         <v>53</v>
       </c>
       <c r="D174" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="E174" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="F174" t="s">
         <v>480</v>
@@ -7388,10 +7388,10 @@
         <v>481</v>
       </c>
       <c r="H174" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="I174" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="J174" t="s">
         <v>480</v>
@@ -7408,10 +7408,10 @@
         <v>53</v>
       </c>
       <c r="D175" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E175" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F175" t="s">
         <v>480</v>
@@ -7420,10 +7420,10 @@
         <v>481</v>
       </c>
       <c r="H175" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="I175" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="J175" t="s">
         <v>480</v>
@@ -7440,10 +7440,10 @@
         <v>53</v>
       </c>
       <c r="D176" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="E176" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="F176" t="s">
         <v>480</v>
@@ -7452,10 +7452,10 @@
         <v>481</v>
       </c>
       <c r="H176" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="I176" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="J176" t="s">
         <v>480</v>
@@ -7472,10 +7472,10 @@
         <v>53</v>
       </c>
       <c r="D177" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="E177" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="F177" t="s">
         <v>480</v>
@@ -7484,10 +7484,10 @@
         <v>481</v>
       </c>
       <c r="H177" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="I177" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="J177" t="s">
         <v>480</v>
@@ -7504,10 +7504,10 @@
         <v>53</v>
       </c>
       <c r="D178" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E178" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F178" t="s">
         <v>480</v>
@@ -7516,10 +7516,10 @@
         <v>481</v>
       </c>
       <c r="H178" t="s">
-        <v>293</v>
+        <v>113</v>
       </c>
       <c r="I178" t="s">
-        <v>472</v>
+        <v>305</v>
       </c>
       <c r="J178" t="s">
         <v>480</v>
@@ -7536,10 +7536,10 @@
         <v>53</v>
       </c>
       <c r="D179" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E179" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F179" t="s">
         <v>480</v>
@@ -7548,10 +7548,10 @@
         <v>481</v>
       </c>
       <c r="H179" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="I179" t="s">
-        <v>305</v>
+        <v>444</v>
       </c>
       <c r="J179" t="s">
         <v>480</v>
@@ -7568,10 +7568,10 @@
         <v>53</v>
       </c>
       <c r="D180" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="E180" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="F180" t="s">
         <v>480</v>
@@ -7580,10 +7580,10 @@
         <v>481</v>
       </c>
       <c r="H180" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="I180" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="J180" t="s">
         <v>480</v>
@@ -7644,10 +7644,10 @@
         <v>481</v>
       </c>
       <c r="H182" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="I182" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="J182" t="s">
         <v>480</v>
@@ -7728,10 +7728,10 @@
         <v>53</v>
       </c>
       <c r="D185" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="E185" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="F185" t="s">
         <v>480</v>
@@ -7740,10 +7740,10 @@
         <v>481</v>
       </c>
       <c r="H185" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="I185" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="J185" t="s">
         <v>480</v>
@@ -7760,10 +7760,10 @@
         <v>53</v>
       </c>
       <c r="D186" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="E186" t="s">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="F186" t="s">
         <v>480</v>
@@ -7772,10 +7772,10 @@
         <v>481</v>
       </c>
       <c r="H186" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="I186" t="s">
-        <v>443</v>
+        <v>343</v>
       </c>
       <c r="J186" t="s">
         <v>480</v>
@@ -7792,10 +7792,10 @@
         <v>53</v>
       </c>
       <c r="D187" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="E187" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="F187" t="s">
         <v>480</v>
@@ -7804,10 +7804,10 @@
         <v>481</v>
       </c>
       <c r="H187" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="I187" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="J187" t="s">
         <v>480</v>
@@ -7824,10 +7824,10 @@
         <v>53</v>
       </c>
       <c r="D188" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E188" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F188" t="s">
         <v>480</v>
@@ -7836,10 +7836,10 @@
         <v>481</v>
       </c>
       <c r="H188" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="I188" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
       <c r="J188" t="s">
         <v>480</v>
@@ -7856,10 +7856,10 @@
         <v>53</v>
       </c>
       <c r="D189" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E189" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F189" t="s">
         <v>480</v>
@@ -7868,10 +7868,10 @@
         <v>481</v>
       </c>
       <c r="H189" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="I189" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="J189" t="s">
         <v>480</v>
@@ -7888,10 +7888,10 @@
         <v>53</v>
       </c>
       <c r="D190" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E190" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F190" t="s">
         <v>480</v>
@@ -7900,10 +7900,10 @@
         <v>481</v>
       </c>
       <c r="H190" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I190" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J190" t="s">
         <v>480</v>
@@ -7920,10 +7920,10 @@
         <v>53</v>
       </c>
       <c r="D191" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="E191" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
         <v>480</v>
@@ -7932,10 +7932,10 @@
         <v>481</v>
       </c>
       <c r="H191" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="I191" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="J191" t="s">
         <v>480</v>
@@ -7952,10 +7952,10 @@
         <v>53</v>
       </c>
       <c r="D192" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="F192" t="s">
         <v>480</v>
@@ -7964,10 +7964,10 @@
         <v>481</v>
       </c>
       <c r="H192" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="I192" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="J192" t="s">
         <v>480</v>
@@ -7984,10 +7984,10 @@
         <v>53</v>
       </c>
       <c r="D193" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="F193" t="s">
         <v>480</v>
@@ -7996,10 +7996,10 @@
         <v>481</v>
       </c>
       <c r="H193" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="I193" t="s">
-        <v>412</v>
+        <v>310</v>
       </c>
       <c r="J193" t="s">
         <v>480</v>
@@ -8016,10 +8016,10 @@
         <v>53</v>
       </c>
       <c r="D194" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E194" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="F194" t="s">
         <v>480</v>
@@ -8028,10 +8028,10 @@
         <v>481</v>
       </c>
       <c r="H194" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="I194" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="J194" t="s">
         <v>480</v>
@@ -8048,10 +8048,10 @@
         <v>53</v>
       </c>
       <c r="D195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E195" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F195" t="s">
         <v>480</v>
@@ -8060,10 +8060,10 @@
         <v>481</v>
       </c>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="I195" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="J195" t="s">
         <v>480</v>
@@ -8080,10 +8080,10 @@
         <v>53</v>
       </c>
       <c r="D196" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E196" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F196" t="s">
         <v>480</v>
@@ -8092,10 +8092,10 @@
         <v>481</v>
       </c>
       <c r="H196" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="I196" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="J196" t="s">
         <v>480</v>
@@ -8112,10 +8112,10 @@
         <v>53</v>
       </c>
       <c r="D197" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="E197" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
         <v>480</v>
@@ -8124,10 +8124,10 @@
         <v>481</v>
       </c>
       <c r="H197" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I197" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J197" t="s">
         <v>480</v>
@@ -8144,10 +8144,10 @@
         <v>53</v>
       </c>
       <c r="D198" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E198" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="F198" t="s">
         <v>480</v>
@@ -8156,10 +8156,10 @@
         <v>481</v>
       </c>
       <c r="H198" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="I198" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="J198" t="s">
         <v>480</v>
@@ -8176,10 +8176,10 @@
         <v>53</v>
       </c>
       <c r="D199" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="E199" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="F199" t="s">
         <v>480</v>
@@ -8188,10 +8188,10 @@
         <v>481</v>
       </c>
       <c r="H199" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="I199" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="J199" t="s">
         <v>480</v>
@@ -8208,10 +8208,10 @@
         <v>53</v>
       </c>
       <c r="D200" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="E200" t="s">
-        <v>421</v>
+        <v>331</v>
       </c>
       <c r="F200" t="s">
         <v>480</v>
@@ -8220,10 +8220,10 @@
         <v>481</v>
       </c>
       <c r="H200" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="I200" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="J200" t="s">
         <v>480</v>
@@ -8240,10 +8240,10 @@
         <v>53</v>
       </c>
       <c r="D201" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="E201" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="F201" t="s">
         <v>480</v>
@@ -8252,10 +8252,10 @@
         <v>481</v>
       </c>
       <c r="H201" t="s">
-        <v>297</v>
+        <v>159</v>
       </c>
       <c r="I201" t="s">
-        <v>476</v>
+        <v>348</v>
       </c>
       <c r="J201" t="s">
         <v>480</v>
@@ -8272,10 +8272,10 @@
         <v>53</v>
       </c>
       <c r="D202" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E202" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F202" t="s">
         <v>480</v>
@@ -8284,10 +8284,10 @@
         <v>481</v>
       </c>
       <c r="H202" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="I202" t="s">
-        <v>348</v>
+        <v>451</v>
       </c>
       <c r="J202" t="s">
         <v>480</v>
@@ -8304,10 +8304,10 @@
         <v>53</v>
       </c>
       <c r="D203" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E203" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F203" t="s">
         <v>480</v>
@@ -8316,10 +8316,10 @@
         <v>481</v>
       </c>
       <c r="H203" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="I203" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
       <c r="J203" t="s">
         <v>480</v>
@@ -8752,10 +8752,10 @@
         <v>53</v>
       </c>
       <c r="D217" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E217" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F217" t="s">
         <v>480</v>
@@ -8848,10 +8848,10 @@
         <v>53</v>
       </c>
       <c r="D220" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F220" t="s">
         <v>480</v>
@@ -9052,10 +9052,10 @@
         <v>481</v>
       </c>
       <c r="H226" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="I226" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="J226" t="s">
         <v>480</v>
@@ -9212,10 +9212,10 @@
         <v>481</v>
       </c>
       <c r="H231" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I231" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J231" t="s">
         <v>480</v>
@@ -9276,10 +9276,10 @@
         <v>481</v>
       </c>
       <c r="H233" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I233" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J233" t="s">
         <v>480</v>
@@ -9468,10 +9468,10 @@
         <v>481</v>
       </c>
       <c r="H239" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I239" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J239" t="s">
         <v>480</v>
@@ -9628,10 +9628,10 @@
         <v>481</v>
       </c>
       <c r="H244" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I244" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J244" t="s">
         <v>480</v>
@@ -9852,10 +9852,10 @@
         <v>481</v>
       </c>
       <c r="H251" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I251" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J251" t="s">
         <v>480</v>
@@ -9872,10 +9872,10 @@
         <v>56</v>
       </c>
       <c r="D252" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E252" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F252" t="s">
         <v>480</v>
@@ -9904,10 +9904,10 @@
         <v>56</v>
       </c>
       <c r="D253" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E253" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F253" t="s">
         <v>480</v>
@@ -10192,10 +10192,10 @@
         <v>56</v>
       </c>
       <c r="D262" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E262" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F262" t="s">
         <v>480</v>
@@ -10364,10 +10364,10 @@
         <v>481</v>
       </c>
       <c r="H267" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I267" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J267" t="s">
         <v>480</v>
@@ -10652,10 +10652,10 @@
         <v>481</v>
       </c>
       <c r="H276" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="I276" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="J276" t="s">
         <v>480</v>
@@ -10704,10 +10704,10 @@
         <v>56</v>
       </c>
       <c r="D278" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E278" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F278" t="s">
         <v>480</v>
@@ -11004,10 +11004,10 @@
         <v>481</v>
       </c>
       <c r="H287" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I287" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J287" t="s">
         <v>480</v>
@@ -11260,10 +11260,10 @@
         <v>481</v>
       </c>
       <c r="H295" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I295" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J295" t="s">
         <v>480</v>
@@ -11324,10 +11324,10 @@
         <v>481</v>
       </c>
       <c r="H297" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I297" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J297" t="s">
         <v>480</v>
@@ -11440,10 +11440,10 @@
         <v>59</v>
       </c>
       <c r="D301" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E301" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F301" t="s">
         <v>480</v>
@@ -11600,10 +11600,10 @@
         <v>59</v>
       </c>
       <c r="D306" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E306" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F306" t="s">
         <v>480</v>
@@ -11696,10 +11696,10 @@
         <v>59</v>
       </c>
       <c r="D309" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E309" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F309" t="s">
         <v>480</v>
@@ -11804,10 +11804,10 @@
         <v>481</v>
       </c>
       <c r="H312" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I312" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J312" t="s">
         <v>480</v>
@@ -11856,10 +11856,10 @@
         <v>59</v>
       </c>
       <c r="D314" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E314" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F314" t="s">
         <v>480</v>
@@ -12208,10 +12208,10 @@
         <v>59</v>
       </c>
       <c r="D325" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="E325" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="F325" t="s">
         <v>480</v>
@@ -12220,10 +12220,10 @@
         <v>481</v>
       </c>
       <c r="H325" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="I325" t="s">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="J325" t="s">
         <v>480</v>
@@ -12240,10 +12240,10 @@
         <v>59</v>
       </c>
       <c r="D326" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E326" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="F326" t="s">
         <v>480</v>
@@ -12252,10 +12252,10 @@
         <v>481</v>
       </c>
       <c r="H326" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I326" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="J326" t="s">
         <v>480</v>
@@ -12272,10 +12272,10 @@
         <v>59</v>
       </c>
       <c r="D327" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="E327" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="F327" t="s">
         <v>480</v>
@@ -12284,10 +12284,10 @@
         <v>481</v>
       </c>
       <c r="H327" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="I327" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="J327" t="s">
         <v>480</v>
@@ -12304,10 +12304,10 @@
         <v>59</v>
       </c>
       <c r="D328" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="E328" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="F328" t="s">
         <v>480</v>
@@ -12316,10 +12316,10 @@
         <v>481</v>
       </c>
       <c r="H328" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="I328" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="J328" t="s">
         <v>480</v>
@@ -12336,10 +12336,10 @@
         <v>59</v>
       </c>
       <c r="D329" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E329" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F329" t="s">
         <v>480</v>
@@ -12348,10 +12348,10 @@
         <v>481</v>
       </c>
       <c r="H329" t="s">
-        <v>239</v>
+        <v>482</v>
       </c>
       <c r="I329" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="J329" t="s">
         <v>480</v>
@@ -12368,10 +12368,10 @@
         <v>59</v>
       </c>
       <c r="D330" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="E330" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="F330" t="s">
         <v>480</v>
@@ -12380,10 +12380,10 @@
         <v>481</v>
       </c>
       <c r="H330" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="I330" t="s">
-        <v>483</v>
+        <v>320</v>
       </c>
       <c r="J330" t="s">
         <v>480</v>
@@ -12400,10 +12400,10 @@
         <v>59</v>
       </c>
       <c r="D331" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E331" t="s">
-        <v>418</v>
+        <v>310</v>
       </c>
       <c r="F331" t="s">
         <v>480</v>
@@ -12412,10 +12412,10 @@
         <v>481</v>
       </c>
       <c r="H331" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="I331" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="J331" t="s">
         <v>480</v>
@@ -12432,10 +12432,10 @@
         <v>59</v>
       </c>
       <c r="D332" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="E332" t="s">
-        <v>310</v>
+        <v>453</v>
       </c>
       <c r="F332" t="s">
         <v>480</v>
@@ -12444,10 +12444,10 @@
         <v>481</v>
       </c>
       <c r="H332" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="I332" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="J332" t="s">
         <v>480</v>
@@ -12464,10 +12464,10 @@
         <v>59</v>
       </c>
       <c r="D333" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="E333" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="F333" t="s">
         <v>480</v>
@@ -12476,10 +12476,10 @@
         <v>481</v>
       </c>
       <c r="H333" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="I333" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="J333" t="s">
         <v>480</v>
@@ -12496,10 +12496,10 @@
         <v>59</v>
       </c>
       <c r="D334" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="E334" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="F334" t="s">
         <v>480</v>
@@ -12508,10 +12508,10 @@
         <v>481</v>
       </c>
       <c r="H334" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="I334" t="s">
-        <v>469</v>
+        <v>404</v>
       </c>
       <c r="J334" t="s">
         <v>480</v>
@@ -12528,10 +12528,10 @@
         <v>59</v>
       </c>
       <c r="D335" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="E335" t="s">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="F335" t="s">
         <v>480</v>
@@ -12540,10 +12540,10 @@
         <v>481</v>
       </c>
       <c r="H335" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="I335" t="s">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="J335" t="s">
         <v>480</v>
@@ -12560,10 +12560,10 @@
         <v>59</v>
       </c>
       <c r="D336" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E336" t="s">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="F336" t="s">
         <v>480</v>
@@ -12572,10 +12572,10 @@
         <v>481</v>
       </c>
       <c r="H336" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="I336" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="J336" t="s">
         <v>480</v>
@@ -12592,10 +12592,10 @@
         <v>59</v>
       </c>
       <c r="D337" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E337" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="F337" t="s">
         <v>480</v>
@@ -12604,10 +12604,10 @@
         <v>481</v>
       </c>
       <c r="H337" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="I337" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J337" t="s">
         <v>480</v>
@@ -12624,10 +12624,10 @@
         <v>59</v>
       </c>
       <c r="D338" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="E338" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="F338" t="s">
         <v>480</v>
@@ -12636,10 +12636,10 @@
         <v>481</v>
       </c>
       <c r="H338" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="I338" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="J338" t="s">
         <v>480</v>
@@ -12656,10 +12656,10 @@
         <v>59</v>
       </c>
       <c r="D339" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="E339" t="s">
-        <v>311</v>
+        <v>461</v>
       </c>
       <c r="F339" t="s">
         <v>480</v>
@@ -12668,10 +12668,10 @@
         <v>481</v>
       </c>
       <c r="H339" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I339" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="J339" t="s">
         <v>480</v>
@@ -12688,10 +12688,10 @@
         <v>59</v>
       </c>
       <c r="D340" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="E340" t="s">
-        <v>461</v>
+        <v>324</v>
       </c>
       <c r="F340" t="s">
         <v>480</v>
@@ -12700,10 +12700,10 @@
         <v>481</v>
       </c>
       <c r="H340" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="I340" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
       <c r="J340" t="s">
         <v>480</v>
@@ -12720,10 +12720,10 @@
         <v>59</v>
       </c>
       <c r="D341" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="E341" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="F341" t="s">
         <v>480</v>
@@ -12732,10 +12732,10 @@
         <v>481</v>
       </c>
       <c r="H341" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="I341" t="s">
-        <v>468</v>
+        <v>226</v>
       </c>
       <c r="J341" t="s">
         <v>480</v>
@@ -12752,10 +12752,10 @@
         <v>59</v>
       </c>
       <c r="D342" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="E342" t="s">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="F342" t="s">
         <v>480</v>
@@ -12764,10 +12764,10 @@
         <v>481</v>
       </c>
       <c r="H342" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="I342" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="J342" t="s">
         <v>480</v>
@@ -12784,10 +12784,10 @@
         <v>59</v>
       </c>
       <c r="D343" t="s">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="E343" t="s">
-        <v>462</v>
+        <v>154</v>
       </c>
       <c r="F343" t="s">
         <v>480</v>
@@ -12796,10 +12796,10 @@
         <v>481</v>
       </c>
       <c r="H343" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="I343" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J343" t="s">
         <v>480</v>
@@ -12816,10 +12816,10 @@
         <v>59</v>
       </c>
       <c r="D344" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E344" t="s">
-        <v>154</v>
+        <v>326</v>
       </c>
       <c r="F344" t="s">
         <v>480</v>
@@ -12828,10 +12828,10 @@
         <v>481</v>
       </c>
       <c r="H344" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I344" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="J344" t="s">
         <v>480</v>
@@ -12860,10 +12860,10 @@
         <v>481</v>
       </c>
       <c r="H345" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="I345" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="J345" t="s">
         <v>480</v>
@@ -12880,10 +12880,10 @@
         <v>59</v>
       </c>
       <c r="D346" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="E346" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="F346" t="s">
         <v>480</v>
@@ -12892,10 +12892,10 @@
         <v>481</v>
       </c>
       <c r="H346" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I346" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="J346" t="s">
         <v>480</v>
@@ -12912,10 +12912,10 @@
         <v>59</v>
       </c>
       <c r="D347" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="E347" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="F347" t="s">
         <v>480</v>
@@ -12924,10 +12924,10 @@
         <v>481</v>
       </c>
       <c r="H347" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="I347" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="J347" t="s">
         <v>480</v>
@@ -12944,10 +12944,10 @@
         <v>59</v>
       </c>
       <c r="D348" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E348" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="F348" t="s">
         <v>480</v>
@@ -12956,10 +12956,10 @@
         <v>481</v>
       </c>
       <c r="H348" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="I348" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="J348" t="s">
         <v>480</v>
@@ -12976,10 +12976,10 @@
         <v>59</v>
       </c>
       <c r="D349" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E349" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F349" t="s">
         <v>480</v>
@@ -12988,10 +12988,10 @@
         <v>481</v>
       </c>
       <c r="H349" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="I349" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="J349" t="s">
         <v>480</v>
@@ -13008,10 +13008,10 @@
         <v>59</v>
       </c>
       <c r="D350" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="E350" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="F350" t="s">
         <v>480</v>
@@ -13020,10 +13020,10 @@
         <v>481</v>
       </c>
       <c r="H350" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="I350" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="J350" t="s">
         <v>480</v>
@@ -13040,10 +13040,10 @@
         <v>59</v>
       </c>
       <c r="D351" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="E351" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="F351" t="s">
         <v>480</v>
@@ -13052,10 +13052,10 @@
         <v>481</v>
       </c>
       <c r="H351" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="I351" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="J351" t="s">
         <v>480</v>
@@ -13072,10 +13072,10 @@
         <v>59</v>
       </c>
       <c r="D352" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="E352" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="F352" t="s">
         <v>480</v>
@@ -13084,10 +13084,10 @@
         <v>481</v>
       </c>
       <c r="H352" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="I352" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="J352" t="s">
         <v>480</v>
@@ -13104,10 +13104,10 @@
         <v>60</v>
       </c>
       <c r="D353" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E353" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F353" t="s">
         <v>480</v>
@@ -13276,10 +13276,10 @@
         <v>481</v>
       </c>
       <c r="H358" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I358" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J358" t="s">
         <v>480</v>
@@ -13372,10 +13372,10 @@
         <v>481</v>
       </c>
       <c r="H361" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I361" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J361" t="s">
         <v>480</v>
@@ -13404,10 +13404,10 @@
         <v>481</v>
       </c>
       <c r="H362" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I362" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J362" t="s">
         <v>480</v>
@@ -13616,10 +13616,10 @@
         <v>62</v>
       </c>
       <c r="D369" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E369" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F369" t="s">
         <v>480</v>
@@ -13628,10 +13628,10 @@
         <v>481</v>
       </c>
       <c r="H369" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I369" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J369" t="s">
         <v>480</v>
@@ -13648,10 +13648,10 @@
         <v>62</v>
       </c>
       <c r="D370" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E370" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F370" t="s">
         <v>480</v>
@@ -13744,10 +13744,10 @@
         <v>62</v>
       </c>
       <c r="D373" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E373" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F373" t="s">
         <v>480</v>
@@ -14268,10 +14268,10 @@
         <v>481</v>
       </c>
       <c r="H389" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I389" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J389" t="s">
         <v>480</v>
@@ -14300,10 +14300,10 @@
         <v>481</v>
       </c>
       <c r="H390" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I390" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J390" t="s">
         <v>480</v>
@@ -14908,10 +14908,10 @@
         <v>481</v>
       </c>
       <c r="H409" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I409" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J409" t="s">
         <v>480</v>
@@ -15024,10 +15024,10 @@
         <v>64</v>
       </c>
       <c r="D413" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E413" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F413" t="s">
         <v>480</v>
@@ -15196,10 +15196,10 @@
         <v>481</v>
       </c>
       <c r="H418" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I418" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J418" t="s">
         <v>480</v>
@@ -15312,10 +15312,10 @@
         <v>65</v>
       </c>
       <c r="D422" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E422" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F422" t="s">
         <v>480</v>
@@ -15548,10 +15548,10 @@
         <v>481</v>
       </c>
       <c r="H429" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I429" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J429" t="s">
         <v>480</v>
@@ -15632,10 +15632,10 @@
         <v>65</v>
       </c>
       <c r="D432" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E432" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F432" t="s">
         <v>480</v>
@@ -15664,10 +15664,10 @@
         <v>65</v>
       </c>
       <c r="D433" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E433" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F433" t="s">
         <v>480</v>
@@ -15836,10 +15836,10 @@
         <v>481</v>
       </c>
       <c r="H438" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I438" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J438" t="s">
         <v>480</v>
@@ -16080,10 +16080,10 @@
         <v>65</v>
       </c>
       <c r="D446" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E446" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F446" t="s">
         <v>480</v>
@@ -16176,10 +16176,10 @@
         <v>65</v>
       </c>
       <c r="D449" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E449" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F449" t="s">
         <v>480</v>
@@ -16240,10 +16240,10 @@
         <v>65</v>
       </c>
       <c r="D451" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E451" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F451" t="s">
         <v>480</v>
@@ -16848,10 +16848,10 @@
         <v>70</v>
       </c>
       <c r="D470" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E470" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F470" t="s">
         <v>480</v>
@@ -17136,10 +17136,10 @@
         <v>70</v>
       </c>
       <c r="D479" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E479" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F479" t="s">
         <v>480</v>
@@ -17148,10 +17148,10 @@
         <v>481</v>
       </c>
       <c r="H479" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I479" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J479" t="s">
         <v>480</v>
@@ -17200,10 +17200,10 @@
         <v>70</v>
       </c>
       <c r="D481" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E481" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F481" t="s">
         <v>480</v>
@@ -17296,10 +17296,10 @@
         <v>70</v>
       </c>
       <c r="D484" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E484" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F484" t="s">
         <v>480</v>
@@ -17360,10 +17360,10 @@
         <v>70</v>
       </c>
       <c r="D486" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E486" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F486" t="s">
         <v>480</v>
@@ -17564,10 +17564,10 @@
         <v>481</v>
       </c>
       <c r="H492" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="I492" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="J492" t="s">
         <v>480</v>
@@ -17680,10 +17680,10 @@
         <v>70</v>
       </c>
       <c r="D496" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E496" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F496" t="s">
         <v>480</v>
@@ -17692,10 +17692,10 @@
         <v>481</v>
       </c>
       <c r="H496" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I496" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J496" t="s">
         <v>480</v>
@@ -17840,10 +17840,10 @@
         <v>70</v>
       </c>
       <c r="D501" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E501" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F501" t="s">
         <v>480</v>
@@ -17884,10 +17884,10 @@
         <v>481</v>
       </c>
       <c r="H502" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I502" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J502" t="s">
         <v>480</v>
@@ -17904,10 +17904,10 @@
         <v>70</v>
       </c>
       <c r="D503" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E503" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F503" t="s">
         <v>480</v>
@@ -18128,10 +18128,10 @@
         <v>71</v>
       </c>
       <c r="D510" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E510" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F510" t="s">
         <v>480</v>
@@ -18352,10 +18352,10 @@
         <v>74</v>
       </c>
       <c r="D517" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E517" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F517" t="s">
         <v>480</v>
@@ -18556,10 +18556,10 @@
         <v>481</v>
       </c>
       <c r="H523" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="I523" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="J523" t="s">
         <v>480</v>
@@ -18588,10 +18588,10 @@
         <v>481</v>
       </c>
       <c r="H524" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I524" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J524" t="s">
         <v>480</v>
@@ -18608,10 +18608,10 @@
         <v>75</v>
       </c>
       <c r="D525" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E525" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F525" t="s">
         <v>480</v>
@@ -18684,10 +18684,10 @@
         <v>481</v>
       </c>
       <c r="H527" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I527" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J527" t="s">
         <v>480</v>
@@ -18704,10 +18704,10 @@
         <v>75</v>
       </c>
       <c r="D528" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E528" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F528" t="s">
         <v>480</v>
@@ -18780,10 +18780,10 @@
         <v>481</v>
       </c>
       <c r="H530" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I530" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J530" t="s">
         <v>480</v>
@@ -18940,10 +18940,10 @@
         <v>481</v>
       </c>
       <c r="H535" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I535" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J535" t="s">
         <v>480</v>
@@ -19024,10 +19024,10 @@
         <v>75</v>
       </c>
       <c r="D538" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E538" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F538" t="s">
         <v>480</v>
@@ -19132,10 +19132,10 @@
         <v>481</v>
       </c>
       <c r="H541" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I541" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J541" t="s">
         <v>480</v>
@@ -19248,10 +19248,10 @@
         <v>75</v>
       </c>
       <c r="D545" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E545" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F545" t="s">
         <v>480</v>
@@ -19548,10 +19548,10 @@
         <v>481</v>
       </c>
       <c r="H554" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I554" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J554" t="s">
         <v>480</v>
@@ -19868,10 +19868,10 @@
         <v>481</v>
       </c>
       <c r="H564" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I564" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J564" t="s">
         <v>480</v>
@@ -20188,10 +20188,10 @@
         <v>481</v>
       </c>
       <c r="H574" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I574" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J574" t="s">
         <v>480</v>
@@ -20304,10 +20304,10 @@
         <v>80</v>
       </c>
       <c r="D578" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E578" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F578" t="s">
         <v>480</v>
@@ -20412,10 +20412,10 @@
         <v>481</v>
       </c>
       <c r="H581" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="I581" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="J581" t="s">
         <v>480</v>
@@ -20464,10 +20464,10 @@
         <v>80</v>
       </c>
       <c r="D583" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E583" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F583" t="s">
         <v>480</v>
@@ -20592,10 +20592,10 @@
         <v>80</v>
       </c>
       <c r="D587" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E587" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F587" t="s">
         <v>480</v>
@@ -20604,10 +20604,10 @@
         <v>481</v>
       </c>
       <c r="H587" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I587" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J587" t="s">
         <v>480</v>
@@ -20700,10 +20700,10 @@
         <v>481</v>
       </c>
       <c r="H590" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I590" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J590" t="s">
         <v>480</v>
@@ -20720,10 +20720,10 @@
         <v>80</v>
       </c>
       <c r="D591" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E591" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F591" t="s">
         <v>480</v>
@@ -20752,10 +20752,10 @@
         <v>80</v>
       </c>
       <c r="D592" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E592" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F592" t="s">
         <v>480</v>
@@ -20784,10 +20784,10 @@
         <v>80</v>
       </c>
       <c r="D593" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E593" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F593" t="s">
         <v>480</v>
@@ -21136,10 +21136,10 @@
         <v>80</v>
       </c>
       <c r="D604" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E604" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F604" t="s">
         <v>480</v>
@@ -21148,10 +21148,10 @@
         <v>481</v>
       </c>
       <c r="H604" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="I604" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="J604" t="s">
         <v>480</v>
@@ -21168,10 +21168,10 @@
         <v>80</v>
       </c>
       <c r="D605" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E605" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F605" t="s">
         <v>480</v>
@@ -21180,10 +21180,10 @@
         <v>481</v>
       </c>
       <c r="H605" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="I605" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="J605" t="s">
         <v>480</v>
@@ -21200,10 +21200,10 @@
         <v>80</v>
       </c>
       <c r="D606" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="E606" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="F606" t="s">
         <v>480</v>
@@ -21212,10 +21212,10 @@
         <v>481</v>
       </c>
       <c r="H606" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="I606" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="J606" t="s">
         <v>480</v>
@@ -21232,10 +21232,10 @@
         <v>80</v>
       </c>
       <c r="D607" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="E607" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="F607" t="s">
         <v>480</v>
@@ -21244,10 +21244,10 @@
         <v>481</v>
       </c>
       <c r="H607" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="I607" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="J607" t="s">
         <v>480</v>
@@ -21264,10 +21264,10 @@
         <v>80</v>
       </c>
       <c r="D608" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="E608" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="F608" t="s">
         <v>480</v>
@@ -21276,10 +21276,10 @@
         <v>481</v>
       </c>
       <c r="H608" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I608" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J608" t="s">
         <v>480</v>
@@ -21296,10 +21296,10 @@
         <v>80</v>
       </c>
       <c r="D609" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="E609" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="F609" t="s">
         <v>480</v>
@@ -21308,10 +21308,10 @@
         <v>481</v>
       </c>
       <c r="H609" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="I609" t="s">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="J609" t="s">
         <v>480</v>
@@ -21328,10 +21328,10 @@
         <v>80</v>
       </c>
       <c r="D610" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E610" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F610" t="s">
         <v>480</v>
@@ -21340,10 +21340,10 @@
         <v>481</v>
       </c>
       <c r="H610" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I610" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="J610" t="s">
         <v>480</v>
@@ -21360,10 +21360,10 @@
         <v>80</v>
       </c>
       <c r="D611" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="E611" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="F611" t="s">
         <v>480</v>
@@ -21372,10 +21372,10 @@
         <v>481</v>
       </c>
       <c r="H611" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="I611" t="s">
-        <v>449</v>
+        <v>347</v>
       </c>
       <c r="J611" t="s">
         <v>480</v>
@@ -21392,10 +21392,10 @@
         <v>80</v>
       </c>
       <c r="D612" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="E612" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="F612" t="s">
         <v>480</v>
@@ -21404,10 +21404,10 @@
         <v>481</v>
       </c>
       <c r="H612" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="I612" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="J612" t="s">
         <v>480</v>
@@ -21424,10 +21424,10 @@
         <v>80</v>
       </c>
       <c r="D613" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E613" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F613" t="s">
         <v>480</v>
@@ -21436,10 +21436,10 @@
         <v>481</v>
       </c>
       <c r="H613" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="I613" t="s">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="J613" t="s">
         <v>480</v>
@@ -21456,10 +21456,10 @@
         <v>80</v>
       </c>
       <c r="D614" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="E614" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="F614" t="s">
         <v>480</v>
@@ -21468,10 +21468,10 @@
         <v>481</v>
       </c>
       <c r="H614" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="I614" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
       <c r="J614" t="s">
         <v>480</v>
@@ -21488,10 +21488,10 @@
         <v>80</v>
       </c>
       <c r="D615" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="E615" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="F615" t="s">
         <v>480</v>
@@ -21500,10 +21500,10 @@
         <v>481</v>
       </c>
       <c r="H615" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="I615" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="J615" t="s">
         <v>480</v>
@@ -21520,10 +21520,10 @@
         <v>80</v>
       </c>
       <c r="D616" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="E616" t="s">
-        <v>438</v>
+        <v>226</v>
       </c>
       <c r="F616" t="s">
         <v>480</v>
@@ -21532,10 +21532,10 @@
         <v>481</v>
       </c>
       <c r="H616" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="I616" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="J616" t="s">
         <v>480</v>
@@ -21552,10 +21552,10 @@
         <v>80</v>
       </c>
       <c r="D617" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="E617" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="F617" t="s">
         <v>480</v>
@@ -21564,10 +21564,10 @@
         <v>481</v>
       </c>
       <c r="H617" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="I617" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="J617" t="s">
         <v>480</v>
@@ -21584,10 +21584,10 @@
         <v>80</v>
       </c>
       <c r="D618" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="E618" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="F618" t="s">
         <v>480</v>
@@ -21596,10 +21596,10 @@
         <v>481</v>
       </c>
       <c r="H618" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I618" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J618" t="s">
         <v>480</v>
@@ -21616,10 +21616,10 @@
         <v>80</v>
       </c>
       <c r="D619" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="E619" t="s">
-        <v>320</v>
+        <v>453</v>
       </c>
       <c r="F619" t="s">
         <v>480</v>
@@ -21628,10 +21628,10 @@
         <v>481</v>
       </c>
       <c r="H619" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="I619" t="s">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="J619" t="s">
         <v>480</v>
@@ -21648,10 +21648,10 @@
         <v>80</v>
       </c>
       <c r="D620" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E620" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="F620" t="s">
         <v>480</v>
@@ -21660,10 +21660,10 @@
         <v>481</v>
       </c>
       <c r="H620" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="I620" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="J620" t="s">
         <v>480</v>
@@ -21680,10 +21680,10 @@
         <v>80</v>
       </c>
       <c r="D621" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="E621" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="F621" t="s">
         <v>480</v>
@@ -21692,10 +21692,10 @@
         <v>481</v>
       </c>
       <c r="H621" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="I621" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="J621" t="s">
         <v>480</v>
@@ -21712,10 +21712,10 @@
         <v>80</v>
       </c>
       <c r="D622" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E622" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="F622" t="s">
         <v>480</v>
@@ -21724,10 +21724,10 @@
         <v>481</v>
       </c>
       <c r="H622" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="I622" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="J622" t="s">
         <v>480</v>
@@ -21744,10 +21744,10 @@
         <v>80</v>
       </c>
       <c r="D623" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="E623" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="F623" t="s">
         <v>480</v>
@@ -21756,10 +21756,10 @@
         <v>481</v>
       </c>
       <c r="H623" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="I623" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="J623" t="s">
         <v>480</v>
@@ -21776,10 +21776,10 @@
         <v>80</v>
       </c>
       <c r="D624" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E624" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="F624" t="s">
         <v>480</v>
@@ -21788,10 +21788,10 @@
         <v>481</v>
       </c>
       <c r="H624" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="I624" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="J624" t="s">
         <v>480</v>
@@ -21808,10 +21808,10 @@
         <v>80</v>
       </c>
       <c r="D625" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="E625" t="s">
-        <v>441</v>
+        <v>370</v>
       </c>
       <c r="F625" t="s">
         <v>480</v>
@@ -21820,10 +21820,10 @@
         <v>481</v>
       </c>
       <c r="H625" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I625" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J625" t="s">
         <v>480</v>
@@ -21884,10 +21884,10 @@
         <v>481</v>
       </c>
       <c r="H627" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="I627" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="J627" t="s">
         <v>480</v>
@@ -22204,10 +22204,10 @@
         <v>481</v>
       </c>
       <c r="H637" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I637" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J637" t="s">
         <v>480</v>
@@ -22300,10 +22300,10 @@
         <v>481</v>
       </c>
       <c r="H640" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I640" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J640" t="s">
         <v>480</v>
@@ -22364,10 +22364,10 @@
         <v>481</v>
       </c>
       <c r="H642" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I642" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J642" t="s">
         <v>480</v>
@@ -22672,10 +22672,10 @@
         <v>85</v>
       </c>
       <c r="D652" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E652" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F652" t="s">
         <v>480</v>
@@ -22684,10 +22684,10 @@
         <v>481</v>
       </c>
       <c r="H652" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I652" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J652" t="s">
         <v>480</v>
@@ -22736,10 +22736,10 @@
         <v>85</v>
       </c>
       <c r="D654" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E654" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F654" t="s">
         <v>480</v>
@@ -22780,10 +22780,10 @@
         <v>481</v>
       </c>
       <c r="H655" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I655" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J655" t="s">
         <v>480</v>
@@ -22876,10 +22876,10 @@
         <v>481</v>
       </c>
       <c r="H658" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I658" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J658" t="s">
         <v>480</v>
@@ -22896,10 +22896,10 @@
         <v>85</v>
       </c>
       <c r="D659" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="E659" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="F659" t="s">
         <v>480</v>
@@ -22908,10 +22908,10 @@
         <v>481</v>
       </c>
       <c r="H659" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="I659" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="J659" t="s">
         <v>480</v>
@@ -22928,10 +22928,10 @@
         <v>85</v>
       </c>
       <c r="D660" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="E660" t="s">
-        <v>353</v>
+        <v>463</v>
       </c>
       <c r="F660" t="s">
         <v>480</v>
@@ -22940,10 +22940,10 @@
         <v>481</v>
       </c>
       <c r="H660" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="I660" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="J660" t="s">
         <v>480</v>
@@ -22960,10 +22960,10 @@
         <v>85</v>
       </c>
       <c r="D661" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="E661" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="F661" t="s">
         <v>480</v>
@@ -22972,10 +22972,10 @@
         <v>481</v>
       </c>
       <c r="H661" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I661" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J661" t="s">
         <v>480</v>
@@ -22992,10 +22992,10 @@
         <v>85</v>
       </c>
       <c r="D662" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
       <c r="E662" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="F662" t="s">
         <v>480</v>
@@ -23004,10 +23004,10 @@
         <v>481</v>
       </c>
       <c r="H662" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="I662" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="J662" t="s">
         <v>480</v>
@@ -23024,10 +23024,10 @@
         <v>85</v>
       </c>
       <c r="D663" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="E663" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="F663" t="s">
         <v>480</v>
@@ -23036,10 +23036,10 @@
         <v>481</v>
       </c>
       <c r="H663" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="I663" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="J663" t="s">
         <v>480</v>
@@ -23056,10 +23056,10 @@
         <v>85</v>
       </c>
       <c r="D664" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="E664" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="F664" t="s">
         <v>480</v>
@@ -23068,10 +23068,10 @@
         <v>481</v>
       </c>
       <c r="H664" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I664" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="J664" t="s">
         <v>480</v>
@@ -23088,10 +23088,10 @@
         <v>85</v>
       </c>
       <c r="D665" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E665" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="F665" t="s">
         <v>480</v>
@@ -23100,10 +23100,10 @@
         <v>481</v>
       </c>
       <c r="H665" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="I665" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="J665" t="s">
         <v>480</v>
@@ -23120,10 +23120,10 @@
         <v>85</v>
       </c>
       <c r="D666" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="E666" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="F666" t="s">
         <v>480</v>
@@ -23132,10 +23132,10 @@
         <v>481</v>
       </c>
       <c r="H666" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="I666" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J666" t="s">
         <v>480</v>
@@ -23152,10 +23152,10 @@
         <v>85</v>
       </c>
       <c r="D667" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="E667" t="s">
-        <v>324</v>
+        <v>468</v>
       </c>
       <c r="F667" t="s">
         <v>480</v>
@@ -23164,10 +23164,10 @@
         <v>481</v>
       </c>
       <c r="H667" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="I667" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="J667" t="s">
         <v>480</v>
@@ -23184,10 +23184,10 @@
         <v>85</v>
       </c>
       <c r="D668" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E668" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F668" t="s">
         <v>480</v>
@@ -23196,10 +23196,10 @@
         <v>481</v>
       </c>
       <c r="H668" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="I668" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="J668" t="s">
         <v>480</v>
@@ -23216,10 +23216,10 @@
         <v>85</v>
       </c>
       <c r="D669" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
       <c r="E669" t="s">
-        <v>477</v>
+        <v>310</v>
       </c>
       <c r="F669" t="s">
         <v>480</v>
@@ -23228,10 +23228,10 @@
         <v>481</v>
       </c>
       <c r="H669" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I669" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="J669" t="s">
         <v>480</v>
@@ -23248,10 +23248,10 @@
         <v>85</v>
       </c>
       <c r="D670" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="E670" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="F670" t="s">
         <v>480</v>
@@ -23260,10 +23260,10 @@
         <v>481</v>
       </c>
       <c r="H670" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="I670" t="s">
-        <v>424</v>
+        <v>154</v>
       </c>
       <c r="J670" t="s">
         <v>480</v>
@@ -23280,10 +23280,10 @@
         <v>85</v>
       </c>
       <c r="D671" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E671" t="s">
-        <v>227</v>
+        <v>407</v>
       </c>
       <c r="F671" t="s">
         <v>480</v>
@@ -23292,10 +23292,10 @@
         <v>481</v>
       </c>
       <c r="H671" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="I671" t="s">
-        <v>154</v>
+        <v>399</v>
       </c>
       <c r="J671" t="s">
         <v>480</v>
@@ -23312,10 +23312,10 @@
         <v>85</v>
       </c>
       <c r="D672" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="E672" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="F672" t="s">
         <v>480</v>
@@ -23324,10 +23324,10 @@
         <v>481</v>
       </c>
       <c r="H672" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="I672" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="J672" t="s">
         <v>480</v>
@@ -23344,10 +23344,10 @@
         <v>85</v>
       </c>
       <c r="D673" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="E673" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="F673" t="s">
         <v>480</v>
@@ -23356,10 +23356,10 @@
         <v>481</v>
       </c>
       <c r="H673" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I673" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="J673" t="s">
         <v>480</v>
@@ -23440,10 +23440,10 @@
         <v>86</v>
       </c>
       <c r="D676" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E676" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F676" t="s">
         <v>480</v>
@@ -23504,10 +23504,10 @@
         <v>87</v>
       </c>
       <c r="D678" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E678" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F678" t="s">
         <v>480</v>
@@ -23600,10 +23600,10 @@
         <v>89</v>
       </c>
       <c r="D681" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E681" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F681" t="s">
         <v>480</v>
@@ -23804,10 +23804,10 @@
         <v>481</v>
       </c>
       <c r="H687" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I687" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J687" t="s">
         <v>480</v>
@@ -23856,10 +23856,10 @@
         <v>90</v>
       </c>
       <c r="D689" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="E689" t="s">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="F689" t="s">
         <v>480</v>
@@ -23868,10 +23868,10 @@
         <v>481</v>
       </c>
       <c r="H689" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="I689" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="J689" t="s">
         <v>480</v>
@@ -23888,10 +23888,10 @@
         <v>90</v>
       </c>
       <c r="D690" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E690" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F690" t="s">
         <v>480</v>
@@ -23900,10 +23900,10 @@
         <v>481</v>
       </c>
       <c r="H690" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I690" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J690" t="s">
         <v>480</v>
@@ -23920,10 +23920,10 @@
         <v>90</v>
       </c>
       <c r="D691" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="E691" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="F691" t="s">
         <v>480</v>
@@ -23932,10 +23932,10 @@
         <v>481</v>
       </c>
       <c r="H691" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I691" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="J691" t="s">
         <v>480</v>
@@ -23952,10 +23952,10 @@
         <v>90</v>
       </c>
       <c r="D692" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="E692" t="s">
-        <v>452</v>
+        <v>316</v>
       </c>
       <c r="F692" t="s">
         <v>480</v>
@@ -23964,10 +23964,10 @@
         <v>481</v>
       </c>
       <c r="H692" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="I692" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="J692" t="s">
         <v>480</v>
@@ -23984,10 +23984,10 @@
         <v>90</v>
       </c>
       <c r="D693" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="E693" t="s">
-        <v>316</v>
+        <v>464</v>
       </c>
       <c r="F693" t="s">
         <v>480</v>
@@ -23996,10 +23996,10 @@
         <v>481</v>
       </c>
       <c r="H693" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I693" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="J693" t="s">
         <v>480</v>
@@ -24016,10 +24016,10 @@
         <v>90</v>
       </c>
       <c r="D694" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E694" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="F694" t="s">
         <v>480</v>
@@ -24028,10 +24028,10 @@
         <v>481</v>
       </c>
       <c r="H694" t="s">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="I694" t="s">
-        <v>465</v>
+        <v>334</v>
       </c>
       <c r="J694" t="s">
         <v>480</v>
@@ -24048,10 +24048,10 @@
         <v>90</v>
       </c>
       <c r="D695" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="E695" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="F695" t="s">
         <v>480</v>
@@ -24060,10 +24060,10 @@
         <v>481</v>
       </c>
       <c r="H695" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="I695" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="J695" t="s">
         <v>480</v>
@@ -24080,10 +24080,10 @@
         <v>90</v>
       </c>
       <c r="D696" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="E696" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="F696" t="s">
         <v>480</v>
@@ -24092,10 +24092,10 @@
         <v>481</v>
       </c>
       <c r="H696" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="I696" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="J696" t="s">
         <v>480</v>
@@ -24112,10 +24112,10 @@
         <v>90</v>
       </c>
       <c r="D697" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="E697" t="s">
-        <v>399</v>
+        <v>474</v>
       </c>
       <c r="F697" t="s">
         <v>480</v>
@@ -24124,10 +24124,10 @@
         <v>481</v>
       </c>
       <c r="H697" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="I697" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="J697" t="s">
         <v>480</v>
@@ -24144,10 +24144,10 @@
         <v>90</v>
       </c>
       <c r="D698" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="E698" t="s">
-        <v>474</v>
+        <v>330</v>
       </c>
       <c r="F698" t="s">
         <v>480</v>
@@ -24156,10 +24156,10 @@
         <v>481</v>
       </c>
       <c r="H698" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="I698" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="J698" t="s">
         <v>480</v>
@@ -24176,10 +24176,10 @@
         <v>90</v>
       </c>
       <c r="D699" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="E699" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="F699" t="s">
         <v>480</v>
@@ -24188,10 +24188,10 @@
         <v>481</v>
       </c>
       <c r="H699" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="I699" t="s">
-        <v>331</v>
+        <v>459</v>
       </c>
       <c r="J699" t="s">
         <v>480</v>
@@ -24208,10 +24208,10 @@
         <v>90</v>
       </c>
       <c r="D700" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="E700" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="F700" t="s">
         <v>480</v>
@@ -24220,10 +24220,10 @@
         <v>481</v>
       </c>
       <c r="H700" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="I700" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="J700" t="s">
         <v>480</v>
@@ -24240,10 +24240,10 @@
         <v>90</v>
       </c>
       <c r="D701" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E701" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F701" t="s">
         <v>480</v>
@@ -24252,10 +24252,10 @@
         <v>481</v>
       </c>
       <c r="H701" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="I701" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="J701" t="s">
         <v>480</v>
@@ -24272,10 +24272,10 @@
         <v>90</v>
       </c>
       <c r="D702" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="E702" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="F702" t="s">
         <v>480</v>
@@ -24284,10 +24284,10 @@
         <v>481</v>
       </c>
       <c r="H702" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="I702" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="J702" t="s">
         <v>480</v>
@@ -24304,10 +24304,10 @@
         <v>90</v>
       </c>
       <c r="D703" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E703" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="F703" t="s">
         <v>480</v>
@@ -24316,10 +24316,10 @@
         <v>481</v>
       </c>
       <c r="H703" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I703" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J703" t="s">
         <v>480</v>
@@ -24336,10 +24336,10 @@
         <v>90</v>
       </c>
       <c r="D704" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="E704" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="F704" t="s">
         <v>480</v>
@@ -24348,10 +24348,10 @@
         <v>481</v>
       </c>
       <c r="H704" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="I704" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J704" t="s">
         <v>480</v>
@@ -24368,10 +24368,10 @@
         <v>90</v>
       </c>
       <c r="D705" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="E705" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="F705" t="s">
         <v>480</v>
@@ -24380,10 +24380,10 @@
         <v>481</v>
       </c>
       <c r="H705" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="I705" t="s">
-        <v>419</v>
+        <v>137</v>
       </c>
       <c r="J705" t="s">
         <v>480</v>
@@ -24400,10 +24400,10 @@
         <v>90</v>
       </c>
       <c r="D706" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="E706" t="s">
-        <v>437</v>
+        <v>344</v>
       </c>
       <c r="F706" t="s">
         <v>480</v>
@@ -24412,10 +24412,10 @@
         <v>481</v>
       </c>
       <c r="H706" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="I706" t="s">
-        <v>137</v>
+        <v>429</v>
       </c>
       <c r="J706" t="s">
         <v>480</v>
@@ -24432,10 +24432,10 @@
         <v>90</v>
       </c>
       <c r="D707" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="E707" t="s">
-        <v>344</v>
+        <v>203</v>
       </c>
       <c r="F707" t="s">
         <v>480</v>
@@ -24444,10 +24444,10 @@
         <v>481</v>
       </c>
       <c r="H707" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="I707" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="J707" t="s">
         <v>480</v>
@@ -24464,10 +24464,10 @@
         <v>90</v>
       </c>
       <c r="D708" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E708" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="F708" t="s">
         <v>480</v>
@@ -24476,10 +24476,10 @@
         <v>481</v>
       </c>
       <c r="H708" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="I708" t="s">
-        <v>444</v>
+        <v>154</v>
       </c>
       <c r="J708" t="s">
         <v>480</v>
@@ -24496,10 +24496,10 @@
         <v>90</v>
       </c>
       <c r="D709" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E709" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F709" t="s">
         <v>480</v>
@@ -24508,10 +24508,10 @@
         <v>481</v>
       </c>
       <c r="H709" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="I709" t="s">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="J709" t="s">
         <v>480</v>
@@ -24528,10 +24528,10 @@
         <v>90</v>
       </c>
       <c r="D710" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E710" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F710" t="s">
         <v>480</v>
@@ -24540,10 +24540,10 @@
         <v>481</v>
       </c>
       <c r="H710" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="I710" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="J710" t="s">
         <v>480</v>
@@ -24560,10 +24560,10 @@
         <v>90</v>
       </c>
       <c r="D711" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E711" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F711" t="s">
         <v>480</v>
@@ -24572,10 +24572,10 @@
         <v>481</v>
       </c>
       <c r="H711" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="I711" t="s">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="J711" t="s">
         <v>480</v>
@@ -24592,10 +24592,10 @@
         <v>90</v>
       </c>
       <c r="D712" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="E712" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="F712" t="s">
         <v>480</v>
@@ -24604,10 +24604,10 @@
         <v>481</v>
       </c>
       <c r="H712" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="I712" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="J712" t="s">
         <v>480</v>
@@ -24624,10 +24624,10 @@
         <v>90</v>
       </c>
       <c r="D713" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E713" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F713" t="s">
         <v>480</v>
@@ -24636,10 +24636,10 @@
         <v>481</v>
       </c>
       <c r="H713" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I713" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J713" t="s">
         <v>480</v>
@@ -24656,10 +24656,10 @@
         <v>90</v>
       </c>
       <c r="D714" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="E714" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="F714" t="s">
         <v>480</v>
@@ -24668,10 +24668,10 @@
         <v>481</v>
       </c>
       <c r="H714" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="I714" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="J714" t="s">
         <v>480</v>
@@ -24688,10 +24688,10 @@
         <v>90</v>
       </c>
       <c r="D715" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="E715" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="F715" t="s">
         <v>480</v>
@@ -24700,10 +24700,10 @@
         <v>481</v>
       </c>
       <c r="H715" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="I715" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="J715" t="s">
         <v>480</v>
@@ -24720,10 +24720,10 @@
         <v>90</v>
       </c>
       <c r="D716" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="E716" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="F716" t="s">
         <v>480</v>
@@ -24732,10 +24732,10 @@
         <v>481</v>
       </c>
       <c r="H716" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="I716" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="J716" t="s">
         <v>480</v>
@@ -24752,10 +24752,10 @@
         <v>90</v>
       </c>
       <c r="D717" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E717" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="F717" t="s">
         <v>480</v>
@@ -24764,10 +24764,10 @@
         <v>481</v>
       </c>
       <c r="H717" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="I717" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="J717" t="s">
         <v>480</v>
@@ -24784,10 +24784,10 @@
         <v>90</v>
       </c>
       <c r="D718" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="E718" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="F718" t="s">
         <v>480</v>
@@ -24796,10 +24796,10 @@
         <v>481</v>
       </c>
       <c r="H718" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I718" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="J718" t="s">
         <v>480</v>
@@ -24816,10 +24816,10 @@
         <v>90</v>
       </c>
       <c r="D719" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="E719" t="s">
-        <v>468</v>
+        <v>325</v>
       </c>
       <c r="F719" t="s">
         <v>480</v>
@@ -24828,10 +24828,10 @@
         <v>481</v>
       </c>
       <c r="H719" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="I719" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="J719" t="s">
         <v>480</v>
@@ -24848,10 +24848,10 @@
         <v>90</v>
       </c>
       <c r="D720" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E720" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F720" t="s">
         <v>480</v>
@@ -24860,10 +24860,10 @@
         <v>481</v>
       </c>
       <c r="H720" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="I720" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="J720" t="s">
         <v>480</v>
@@ -24944,10 +24944,10 @@
         <v>90</v>
       </c>
       <c r="D723" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E723" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F723" t="s">
         <v>480</v>
@@ -25052,10 +25052,10 @@
         <v>481</v>
       </c>
       <c r="H726" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I726" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J726" t="s">
         <v>480</v>
@@ -25424,10 +25424,10 @@
         <v>95</v>
       </c>
       <c r="D738" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E738" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F738" t="s">
         <v>480</v>
@@ -25436,10 +25436,10 @@
         <v>481</v>
       </c>
       <c r="H738" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I738" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J738" t="s">
         <v>480</v>
@@ -25456,10 +25456,10 @@
         <v>95</v>
       </c>
       <c r="D739" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E739" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F739" t="s">
         <v>480</v>
@@ -25724,10 +25724,10 @@
         <v>481</v>
       </c>
       <c r="H747" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I747" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J747" t="s">
         <v>480</v>
@@ -25756,10 +25756,10 @@
         <v>481</v>
       </c>
       <c r="H748" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I748" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J748" t="s">
         <v>480</v>
@@ -25788,10 +25788,10 @@
         <v>481</v>
       </c>
       <c r="H749" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I749" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J749" t="s">
         <v>480</v>
@@ -25916,10 +25916,10 @@
         <v>481</v>
       </c>
       <c r="H753" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I753" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J753" t="s">
         <v>480</v>
@@ -26064,10 +26064,10 @@
         <v>95</v>
       </c>
       <c r="D758" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E758" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F758" t="s">
         <v>480</v>
@@ -26076,10 +26076,10 @@
         <v>481</v>
       </c>
       <c r="H758" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="I758" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="J758" t="s">
         <v>480</v>
@@ -26096,10 +26096,10 @@
         <v>95</v>
       </c>
       <c r="D759" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="E759" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="F759" t="s">
         <v>480</v>
@@ -26108,10 +26108,10 @@
         <v>481</v>
       </c>
       <c r="H759" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="I759" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="J759" t="s">
         <v>480</v>
@@ -26128,10 +26128,10 @@
         <v>95</v>
       </c>
       <c r="D760" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="E760" t="s">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="F760" t="s">
         <v>480</v>
@@ -26160,10 +26160,10 @@
         <v>95</v>
       </c>
       <c r="D761" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E761" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F761" t="s">
         <v>480</v>
@@ -26172,10 +26172,10 @@
         <v>481</v>
       </c>
       <c r="H761" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I761" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="J761" t="s">
         <v>480</v>
@@ -26192,10 +26192,10 @@
         <v>95</v>
       </c>
       <c r="D762" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="E762" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="F762" t="s">
         <v>480</v>
@@ -26204,10 +26204,10 @@
         <v>481</v>
       </c>
       <c r="H762" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="I762" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="J762" t="s">
         <v>480</v>
@@ -26224,10 +26224,10 @@
         <v>95</v>
       </c>
       <c r="D763" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="E763" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="F763" t="s">
         <v>480</v>
@@ -26236,10 +26236,10 @@
         <v>481</v>
       </c>
       <c r="H763" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="I763" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="J763" t="s">
         <v>480</v>
@@ -26256,10 +26256,10 @@
         <v>95</v>
       </c>
       <c r="D764" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="E764" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="F764" t="s">
         <v>480</v>
@@ -26268,10 +26268,10 @@
         <v>481</v>
       </c>
       <c r="H764" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="I764" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="J764" t="s">
         <v>480</v>
@@ -26288,10 +26288,10 @@
         <v>95</v>
       </c>
       <c r="D765" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="E765" t="s">
-        <v>377</v>
+        <v>243</v>
       </c>
       <c r="F765" t="s">
         <v>480</v>
@@ -26300,10 +26300,10 @@
         <v>481</v>
       </c>
       <c r="H765" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="I765" t="s">
-        <v>467</v>
+        <v>324</v>
       </c>
       <c r="J765" t="s">
         <v>480</v>
@@ -26320,10 +26320,10 @@
         <v>95</v>
       </c>
       <c r="D766" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E766" t="s">
-        <v>243</v>
+        <v>417</v>
       </c>
       <c r="F766" t="s">
         <v>480</v>
@@ -26332,10 +26332,10 @@
         <v>481</v>
       </c>
       <c r="H766" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="I766" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="J766" t="s">
         <v>480</v>
@@ -26352,10 +26352,10 @@
         <v>95</v>
       </c>
       <c r="D767" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="E767" t="s">
-        <v>417</v>
+        <v>326</v>
       </c>
       <c r="F767" t="s">
         <v>480</v>
@@ -26364,10 +26364,10 @@
         <v>481</v>
       </c>
       <c r="H767" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="I767" t="s">
-        <v>409</v>
+        <v>325</v>
       </c>
       <c r="J767" t="s">
         <v>480</v>
@@ -26384,10 +26384,10 @@
         <v>95</v>
       </c>
       <c r="D768" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="E768" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="F768" t="s">
         <v>480</v>
@@ -26396,10 +26396,10 @@
         <v>481</v>
       </c>
       <c r="H768" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I768" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J768" t="s">
         <v>480</v>
@@ -26416,10 +26416,10 @@
         <v>95</v>
       </c>
       <c r="D769" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E769" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="F769" t="s">
         <v>480</v>
@@ -26428,10 +26428,10 @@
         <v>481</v>
       </c>
       <c r="H769" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I769" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J769" t="s">
         <v>480</v>
@@ -26448,10 +26448,10 @@
         <v>95</v>
       </c>
       <c r="D770" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E770" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="F770" t="s">
         <v>480</v>
@@ -26460,10 +26460,10 @@
         <v>481</v>
       </c>
       <c r="H770" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="I770" t="s">
-        <v>320</v>
+        <v>468</v>
       </c>
       <c r="J770" t="s">
         <v>480</v>
@@ -26480,10 +26480,10 @@
         <v>95</v>
       </c>
       <c r="D771" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E771" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="F771" t="s">
         <v>480</v>
@@ -26492,10 +26492,10 @@
         <v>481</v>
       </c>
       <c r="H771" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I771" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="J771" t="s">
         <v>480</v>
@@ -26512,10 +26512,10 @@
         <v>95</v>
       </c>
       <c r="D772" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="E772" t="s">
-        <v>463</v>
+        <v>314</v>
       </c>
       <c r="F772" t="s">
         <v>480</v>
@@ -26524,10 +26524,10 @@
         <v>481</v>
       </c>
       <c r="H772" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I772" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J772" t="s">
         <v>480</v>
@@ -26544,10 +26544,10 @@
         <v>95</v>
       </c>
       <c r="D773" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E773" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="F773" t="s">
         <v>480</v>
@@ -26556,10 +26556,10 @@
         <v>481</v>
       </c>
       <c r="H773" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="I773" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="J773" t="s">
         <v>480</v>
@@ -26576,10 +26576,10 @@
         <v>95</v>
       </c>
       <c r="D774" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="E774" t="s">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="F774" t="s">
         <v>480</v>
@@ -26588,10 +26588,10 @@
         <v>481</v>
       </c>
       <c r="H774" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="I774" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="J774" t="s">
         <v>480</v>
@@ -26768,10 +26768,10 @@
         <v>96</v>
       </c>
       <c r="D780" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E780" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F780" t="s">
         <v>480</v>
@@ -27036,10 +27036,10 @@
         <v>481</v>
       </c>
       <c r="H788" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I788" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J788" t="s">
         <v>480</v>
@@ -27152,10 +27152,10 @@
         <v>100</v>
       </c>
       <c r="D792" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E792" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F792" t="s">
         <v>480</v>
@@ -27164,10 +27164,10 @@
         <v>481</v>
       </c>
       <c r="H792" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="I792" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="J792" t="s">
         <v>480</v>
@@ -27228,10 +27228,10 @@
         <v>481</v>
       </c>
       <c r="H794" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I794" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J794" t="s">
         <v>480</v>
@@ -27356,10 +27356,10 @@
         <v>481</v>
       </c>
       <c r="H798" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I798" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J798" t="s">
         <v>480</v>
@@ -27548,10 +27548,10 @@
         <v>481</v>
       </c>
       <c r="H804" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I804" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J804" t="s">
         <v>480</v>
@@ -27664,10 +27664,10 @@
         <v>100</v>
       </c>
       <c r="D808" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E808" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F808" t="s">
         <v>480</v>
@@ -27728,10 +27728,10 @@
         <v>100</v>
       </c>
       <c r="D810" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E810" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F810" t="s">
         <v>480</v>
@@ -27952,10 +27952,10 @@
         <v>100</v>
       </c>
       <c r="D817" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E817" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F817" t="s">
         <v>480</v>
@@ -28240,10 +28240,10 @@
         <v>100</v>
       </c>
       <c r="D826" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E826" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F826" t="s">
         <v>480</v>
@@ -28316,10 +28316,10 @@
         <v>481</v>
       </c>
       <c r="H828" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="I828" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="J828" t="s">
         <v>480</v>
@@ -28336,10 +28336,10 @@
         <v>100</v>
       </c>
       <c r="D829" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E829" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F829" t="s">
         <v>480</v>
@@ -28700,10 +28700,10 @@
         <v>481</v>
       </c>
       <c r="H840" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I840" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J840" t="s">
         <v>480</v>
@@ -28752,10 +28752,10 @@
         <v>100</v>
       </c>
       <c r="D842" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E842" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F842" t="s">
         <v>480</v>
@@ -28988,10 +28988,10 @@
         <v>481</v>
       </c>
       <c r="H849" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I849" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J849" t="s">
         <v>480</v>
@@ -29264,10 +29264,10 @@
         <v>103</v>
       </c>
       <c r="D858" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E858" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F858" t="s">
         <v>480</v>
@@ -29500,10 +29500,10 @@
         <v>481</v>
       </c>
       <c r="H865" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I865" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J865" t="s">
         <v>480</v>
@@ -29520,10 +29520,10 @@
         <v>104</v>
       </c>
       <c r="D866" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E866" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F866" t="s">
         <v>480</v>
@@ -29552,10 +29552,10 @@
         <v>104</v>
       </c>
       <c r="D867" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E867" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F867" t="s">
         <v>480</v>
@@ -29724,10 +29724,10 @@
         <v>481</v>
       </c>
       <c r="H872" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I872" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J872" t="s">
         <v>480</v>
@@ -29872,10 +29872,10 @@
         <v>104</v>
       </c>
       <c r="D877" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E877" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F877" t="s">
         <v>480</v>
@@ -29904,10 +29904,10 @@
         <v>104</v>
       </c>
       <c r="D878" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E878" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F878" t="s">
         <v>480</v>
@@ -29916,10 +29916,10 @@
         <v>481</v>
       </c>
       <c r="H878" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I878" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J878" t="s">
         <v>480</v>
@@ -30192,10 +30192,10 @@
         <v>104</v>
       </c>
       <c r="D887" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E887" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F887" t="s">
         <v>480</v>
@@ -30204,10 +30204,10 @@
         <v>481</v>
       </c>
       <c r="H887" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I887" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J887" t="s">
         <v>480</v>
@@ -30416,10 +30416,10 @@
         <v>104</v>
       </c>
       <c r="D894" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="E894" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="F894" t="s">
         <v>480</v>
@@ -30428,10 +30428,10 @@
         <v>481</v>
       </c>
       <c r="H894" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="I894" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="J894" t="s">
         <v>480</v>
@@ -30448,10 +30448,10 @@
         <v>104</v>
       </c>
       <c r="D895" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="E895" t="s">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="F895" t="s">
         <v>480</v>
@@ -30480,10 +30480,10 @@
         <v>104</v>
       </c>
       <c r="D896" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="E896" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="F896" t="s">
         <v>480</v>
@@ -30492,10 +30492,10 @@
         <v>481</v>
       </c>
       <c r="H896" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="I896" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="J896" t="s">
         <v>480</v>
@@ -30512,10 +30512,10 @@
         <v>104</v>
       </c>
       <c r="D897" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E897" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F897" t="s">
         <v>480</v>
@@ -30524,10 +30524,10 @@
         <v>481</v>
       </c>
       <c r="H897" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="I897" t="s">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="J897" t="s">
         <v>480</v>
@@ -30544,10 +30544,10 @@
         <v>104</v>
       </c>
       <c r="D898" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="E898" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="F898" t="s">
         <v>480</v>
@@ -30556,10 +30556,10 @@
         <v>481</v>
       </c>
       <c r="H898" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="I898" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="J898" t="s">
         <v>480</v>
@@ -30576,10 +30576,10 @@
         <v>104</v>
       </c>
       <c r="D899" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="E899" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="F899" t="s">
         <v>480</v>
@@ -30588,10 +30588,10 @@
         <v>481</v>
       </c>
       <c r="H899" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="I899" t="s">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="J899" t="s">
         <v>480</v>
@@ -30608,10 +30608,10 @@
         <v>104</v>
       </c>
       <c r="D900" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="E900" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="F900" t="s">
         <v>480</v>
@@ -30640,10 +30640,10 @@
         <v>104</v>
       </c>
       <c r="D901" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="E901" t="s">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="F901" t="s">
         <v>480</v>
@@ -30652,10 +30652,10 @@
         <v>481</v>
       </c>
       <c r="H901" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="I901" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="J901" t="s">
         <v>480</v>
@@ -30672,10 +30672,10 @@
         <v>104</v>
       </c>
       <c r="D902" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="E902" t="s">
-        <v>243</v>
+        <v>468</v>
       </c>
       <c r="F902" t="s">
         <v>480</v>
@@ -30684,10 +30684,10 @@
         <v>481</v>
       </c>
       <c r="H902" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="I902" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="J902" t="s">
         <v>480</v>
@@ -30704,10 +30704,10 @@
         <v>104</v>
       </c>
       <c r="D903" t="s">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="E903" t="s">
-        <v>468</v>
+        <v>326</v>
       </c>
       <c r="F903" t="s">
         <v>480</v>
@@ -30716,10 +30716,10 @@
         <v>481</v>
       </c>
       <c r="H903" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I903" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="J903" t="s">
         <v>480</v>
@@ -30736,10 +30736,10 @@
         <v>104</v>
       </c>
       <c r="D904" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E904" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="F904" t="s">
         <v>480</v>
@@ -30748,10 +30748,10 @@
         <v>481</v>
       </c>
       <c r="H904" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="I904" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="J904" t="s">
         <v>480</v>
@@ -30768,10 +30768,10 @@
         <v>104</v>
       </c>
       <c r="D905" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="E905" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F905" t="s">
         <v>480</v>
@@ -30780,10 +30780,10 @@
         <v>481</v>
       </c>
       <c r="H905" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="I905" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="J905" t="s">
         <v>480</v>
@@ -30800,10 +30800,10 @@
         <v>104</v>
       </c>
       <c r="D906" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E906" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F906" t="s">
         <v>480</v>
@@ -30812,10 +30812,10 @@
         <v>481</v>
       </c>
       <c r="H906" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I906" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="J906" t="s">
         <v>480</v>
@@ -30832,10 +30832,10 @@
         <v>104</v>
       </c>
       <c r="D907" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E907" t="s">
-        <v>406</v>
+        <v>226</v>
       </c>
       <c r="F907" t="s">
         <v>480</v>
@@ -30844,10 +30844,10 @@
         <v>481</v>
       </c>
       <c r="H907" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="I907" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="J907" t="s">
         <v>480</v>
@@ -30864,10 +30864,10 @@
         <v>104</v>
       </c>
       <c r="D908" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E908" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="F908" t="s">
         <v>480</v>
@@ -30876,10 +30876,10 @@
         <v>481</v>
       </c>
       <c r="H908" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="I908" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="J908" t="s">
         <v>480</v>
@@ -30896,10 +30896,10 @@
         <v>104</v>
       </c>
       <c r="D909" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="E909" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="F909" t="s">
         <v>480</v>
@@ -30908,10 +30908,10 @@
         <v>481</v>
       </c>
       <c r="H909" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="I909" t="s">
-        <v>312</v>
+        <v>441</v>
       </c>
       <c r="J909" t="s">
         <v>480</v>
@@ -30928,10 +30928,10 @@
         <v>104</v>
       </c>
       <c r="D910" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E910" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="F910" t="s">
         <v>480</v>
@@ -30940,10 +30940,10 @@
         <v>481</v>
       </c>
       <c r="H910" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="I910" t="s">
-        <v>441</v>
+        <v>178</v>
       </c>
       <c r="J910" t="s">
         <v>480</v>
@@ -30960,10 +30960,10 @@
         <v>104</v>
       </c>
       <c r="D911" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E911" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F911" t="s">
         <v>480</v>
@@ -30972,10 +30972,10 @@
         <v>481</v>
       </c>
       <c r="H911" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="I911" t="s">
-        <v>178</v>
+        <v>448</v>
       </c>
       <c r="J911" t="s">
         <v>480</v>
